--- a/Probandenauswahl_final.xlsx
+++ b/Probandenauswahl_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Translators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E91864-B267-4FBE-AF02-6BBF37EE0643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917D207-61B6-41F8-91B8-90E73332E4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="2490" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14925" yWindow="8130" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
   <si>
     <t>Proband</t>
   </si>
@@ -370,15 +370,9 @@
     <t>E 115, 104, 79 &amp; 81, Impedanzen spät e1_r</t>
   </si>
   <si>
-    <t>re-done: e1_r</t>
-  </si>
-  <si>
     <t>re-done: all</t>
   </si>
   <si>
-    <t>e1_c, re-done:  all</t>
-  </si>
-  <si>
     <t>re-done: e1_t</t>
   </si>
   <si>
@@ -398,6 +392,18 @@
   </si>
   <si>
     <t>T1_ELF --&gt; copy/trans</t>
+  </si>
+  <si>
+    <t>e1_t, e2_c re-done:  all</t>
+  </si>
+  <si>
+    <t>Ausschlussgrund</t>
+  </si>
+  <si>
+    <t>ADHS</t>
+  </si>
+  <si>
+    <t>Copy</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1255,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1271,8 +1277,11 @@
       <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -1310,45 +1319,54 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1359,7 +1377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1457,13 +1475,13 @@
         <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1496,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1489,17 +1507,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
@@ -1507,19 +1525,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="5"/>
       <c r="F27" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1527,7 +1541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1538,7 +1552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1548,8 +1562,11 @@
       <c r="F30" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -1557,7 +1574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1584,18 +1601,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="F35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1697,18 +1713,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="C46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1748,15 +1763,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1767,15 +1782,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1827,15 +1842,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1865,15 +1880,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,7 +1918,7 @@
         <v>70</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>106</v>

--- a/Probandenauswahl_final.xlsx
+++ b/Probandenauswahl_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Translators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917D207-61B6-41F8-91B8-90E73332E4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F88AB56-FCE4-48EB-8E9C-33B50424D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="8130" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1545" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Probandenauswahl_final.xlsx
+++ b/Probandenauswahl_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Translators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F88AB56-FCE4-48EB-8E9C-33B50424D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC1CEF-809A-4EAD-A5FB-A91DADEC9A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1545" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="2700" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
   <si>
     <t>Proband</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>Copy</t>
+  </si>
+  <si>
+    <t>Segmente</t>
+  </si>
+  <si>
+    <t>Ritalin</t>
+  </si>
+  <si>
+    <t>Missing</t>
   </si>
 </sst>
 </file>
@@ -1241,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1261,9 @@
     <col min="3" max="4" width="30.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,7 +1593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -1593,7 +1604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1614,8 +1625,11 @@
       <c r="F35" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1634,7 +1648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -1642,7 +1656,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -1664,7 +1678,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -1675,7 +1689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -1686,7 +1700,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>63</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -1702,7 +1716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>65</v>
       </c>
@@ -1713,7 +1727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>85</v>
       </c>
@@ -1726,28 +1740,34 @@
       <c r="F46" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -1755,7 +1775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
@@ -1773,8 +1793,11 @@
       <c r="E53" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -1782,7 +1805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>32</v>
       </c>
@@ -1792,8 +1815,11 @@
       <c r="E55" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1830,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>34</v>
       </c>
@@ -1815,7 +1841,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -1826,7 +1852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
@@ -1834,7 +1860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>44</v>
       </c>
@@ -1842,7 +1868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>45</v>
       </c>
@@ -1852,8 +1878,11 @@
       <c r="E61" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>46</v>
       </c>
@@ -1863,8 +1892,11 @@
       <c r="F62" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -1890,8 +1922,11 @@
       <c r="E65" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
@@ -1902,12 +1937,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>37</v>
       </c>
@@ -1923,8 +1958,11 @@
       <c r="F68" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
@@ -1932,7 +1970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>39</v>
       </c>
@@ -1940,7 +1978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>40</v>
       </c>
@@ -1950,8 +1988,11 @@
       <c r="C71" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>41</v>
       </c>
@@ -1959,7 +2000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>42</v>
       </c>
@@ -1970,7 +2011,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>43</v>
       </c>
